--- a/ClaveIndicador.xlsx
+++ b/ClaveIndicador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyc314\OneDrive - Sherwin-Williams\Escritorio\EXTRA\UNIVERSIDAD\Análisis de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11032685-1D7B-4FD7-8BE2-15319B491E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21B446A-F077-45D2-971A-95E0E996C2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-8070" windowWidth="24240" windowHeight="13740" xr2:uid="{A8AA0055-828B-420B-A26B-ECDD580C1CFA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Clave indicador</t>
   </si>
@@ -72,12 +72,33 @@
   </si>
   <si>
     <t>UTC6E</t>
+  </si>
+  <si>
+    <t>Año2015</t>
+  </si>
+  <si>
+    <t>Año2016</t>
+  </si>
+  <si>
+    <t>Año2017</t>
+  </si>
+  <si>
+    <t>Año2018</t>
+  </si>
+  <si>
+    <t>Año2019</t>
+  </si>
+  <si>
+    <t>Año2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,14 +128,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -125,6 +172,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9191B72E-3EF8-475E-ADCD-B0AD66EC1FCF}" name="Tabla1" displayName="Tabla1" ref="A1:G11" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:G11" xr:uid="{9191B72E-3EF8-475E-ADCD-B0AD66EC1FCF}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{FC393DE2-3D9F-4A05-912B-8CC37DB26F60}" name="Clave indicador" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0FE5BAA2-8B4B-4442-BF10-4D4D45688EC3}" name="Año2015" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{7CB7BAA4-2391-4E50-8476-01BB3181B9D0}" name="Año2016" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{3261F47B-7621-476B-AB65-7905E690BFF7}" name="Año2017" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{457DFA91-F90B-4C41-90AD-12B87D92897B}" name="Año2018" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5CA57C37-7B25-4EBA-9D2E-98F923B9D1E7}" name="Año2019" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{3C8BD538-6E5A-4120-996D-241DF3CFAB7D}" name="Año2020" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,264 +495,267 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>2015</v>
-      </c>
-      <c r="C1">
-        <v>2016</v>
-      </c>
-      <c r="D1">
-        <v>2017</v>
-      </c>
-      <c r="E1">
-        <v>2018</v>
-      </c>
-      <c r="F1">
-        <v>2019</v>
-      </c>
-      <c r="G1">
-        <v>2020</v>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>44.9</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>45.6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>45.4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>44.9</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>44.3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>44.893999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>39.200000000000003</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>47</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>50.9</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>52.9</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>56.4</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>52.935000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>93.5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>93.1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>93.2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>92.9</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>92.5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>92.896000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>43.7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>52.1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>49.5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>47.3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>45.9</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>47.285999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>51.3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>47</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>45.3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>45</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>43</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>44.98</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>57.4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>59.5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>63.9</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>65.8</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>70.099999999999994</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>65.843000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>51.3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>52.2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>46.8</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>46.7</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>44.6</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>46.679000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>12.8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>14.7</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>20.399999999999999</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>23.7</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>27.2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>23.734999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>29.1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>20.5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>16.7</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>13.4</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>10.7</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>13.373000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>71.5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>73.599999999999994</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>72.2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>73.5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>75.099999999999994</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>73.516000000000005</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>